--- a/koeb.xlsx
+++ b/koeb.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="210">
   <si>
     <t>tag</t>
   </si>
@@ -19,115 +19,1234 @@
     <t>title</t>
   </si>
   <si>
+    <t>excerpt</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>energyLabel</t>
+  </si>
+  <si>
+    <t>caseNumber</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>facilities</t>
+  </si>
+  <si>
+    <t>technique</t>
+  </si>
+  <si>
     <t>HOTEL &amp; RESTAURANT TIL SALG</t>
   </si>
   <si>
     <t>John F. Kennedys Plads 41, 9000 Aalborg</t>
   </si>
   <si>
+    <t>Velbeliggende lokaler bl.a. oplagt til cafe/kaffebar mv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 338 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  D
+                    Energimærke D
+            </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel &amp; Restaurant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Café
+                Kaffebar
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                6.000.000,-
+                  Pris pr. m² kr.
+                  17.751,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              338 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Kælder
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Udsugning
+            </t>
+  </si>
+  <si>
     <t>LAGER &amp; PRODUKTION TIL SALG</t>
   </si>
   <si>
     <t>Assensvej 126, 5620 Glamsbjerg</t>
   </si>
   <si>
+    <t>Erhvervsejendom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2768 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  F
+                    Energimærke F
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lager &amp; Produktion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                4.200.000,-
+                  Pris pr. m² kr.
+                  1.517,-
+                Årlige driftsudgifter kr.
+                203.466,-
+                  Årlige driftsudgifter pr. m² kr.
+                  74,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              2768 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              16630 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Port
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>ANDRE TYPER TIL SALG</t>
   </si>
   <si>
     <t>Søndergade 17B, 4130 Viby Sjælland</t>
   </si>
   <si>
+    <t>Velbeliggende gågadeejendom i Viby Sj.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 577 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andre typer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Institution
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                4.950.000,-
+                  Årlige lejeindtægt kr.
+                  436.440,-
+                  Pris pr. m² kr.
+                  8.579,-
+                  Årlige lejeindtægt pr. m² kr.
+                  756,-
+                Årlige driftsudgifter kr.
+                79.596,-
+                  Årlige driftsudgifter pr. m² kr.
+                  138,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              577 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              761 m²
+            </t>
+  </si>
+  <si>
     <t>Bjergvej 6, 4672 Klippinge</t>
   </si>
   <si>
+    <t>Funktionel ejendom med gode muligheder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 507 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                3.495.000,-
+                  Pris pr. m² kr.
+                  6.893,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              507 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              2803 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Bad
+                Toilet
+                Parkering
+                Køkken
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Ventilation
+            </t>
+  </si>
+  <si>
     <t>Bakkegårdsvej 408, 3050 Humlebæk</t>
   </si>
   <si>
+    <t>1.727 m² lager og kontorejendom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2415 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Lagerbygning
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                12.500.000,-
+                  Pris pr. m² kr.
+                  5.176,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              2415 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              6000 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Depot
+                Bad
+                Omklædning
+                Betongulv
+                Toilet
+                Indgangsparti
+                Kælder
+                Mødelokale
+                Port
+                Køkken
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Fjernvarme
+                Naturgasanlæg
+            </t>
+  </si>
+  <si>
     <t>Ferrarivej 5, 7100 Vejle</t>
   </si>
   <si>
+    <t xml:space="preserve">1063m2 lagerejendom i Vejle Syd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1063 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                4.995.000,-
+                  Pris pr. m² kr.
+                  4.699,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              1063 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              2688 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Badeværelse
+                Kantine
+                Rampe
+                Mødelokale
+                Port
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>KONTOR TIL SALG</t>
   </si>
   <si>
     <t>Herlev Hovedgade 82, 2730 Herlev</t>
   </si>
   <si>
+    <t>Nyrenoveret kontorejendom med gode parkeringsforhold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2353 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  C
+                    Energimærke C
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Klinik
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                25.900.000,-
+                  Pris pr. m² kr.
+                  11.007,-
+                Årlige driftsudgifter kr.
+                539.512,-
+                  Årlige driftsudgifter pr. m² kr.
+                  229,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              2353 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Gård
+                Kælder
+                Parkeringsplads
+                Port
+            </t>
+  </si>
+  <si>
     <t>DETAILHANDEL/BUTIK TIL SALG</t>
   </si>
   <si>
     <t>Vestergade 13, 6800 Varde</t>
   </si>
   <si>
+    <t>Større, fleksibel butiksejendom i den ene af Vardes gågader</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 961 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  E
+                    Energimærke E
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detailhandel/butik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Apotek
+                Butikker
+                Butik
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                5.500.000,-
+                  Pris pr. m² kr.
+                  5.723,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              961 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              999 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Toilet
+                Tekøkken
+                Mødelokale
+                Parkeringsplads
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Herredsvej 64B, 8210 Aarhus V</t>
   </si>
   <si>
+    <t>Bynært værksted/lager</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 184 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Lager
+                Værksted
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                1.800.000,-
+                  Pris pr. m² kr.
+                  9.783,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              184 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              1149 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Fjernvarme
+            </t>
+  </si>
+  <si>
     <t>DETAILHANDEL/BUTIK TIL SALG - POPULÆR</t>
   </si>
   <si>
     <t>Blågårdsgade 16A, 2200 København N</t>
   </si>
   <si>
+    <t>Skab din forretnings succes midt i Nørrebros puls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Café
+                Butikker
+                Butik
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                995.000,-
+                  Pris pr. m² kr.
+                  12.134,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              82 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Toilet
+                Tekøkken
+                Gårdsplads
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Odensevej 147, 5492 Vissenbjerg</t>
   </si>
   <si>
+    <t>Erhvervs-/boligejendom med autoværksted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 645 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                1.650.000,-
+                  Årlige lejeindtægt kr.
+                  60.000,-
+                  Pris pr. m² kr.
+                  2.558,-
+                  Årlige lejeindtægt pr. m² kr.
+                  93,-
+                Årlige driftsudgifter kr.
+                29.474,-
+                  Årlige driftsudgifter pr. m² kr.
+                  46,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              645 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              3591 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Badeværelse
+                Kælder
+            </t>
+  </si>
+  <si>
     <t>GRUNDE TIL SALG</t>
   </si>
   <si>
     <t>Rosenkildevej 99, 4200 Slagelse</t>
   </si>
   <si>
+    <t>Erhvervsgrund med lokalplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2511 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grunde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                1.950.000,-
+                  Pris pr. m² kr.
+                  777,-
+                Årlige driftsudgifter kr.
+                7.815,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              0 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              2511 m²
+            </t>
+  </si>
+  <si>
     <t>Industrivej Nord 7A, 7400 Herning</t>
   </si>
   <si>
+    <t>Lager-/distributionsejendom med store søjlefrie haller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2447 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  B
+                    Energimærke B
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                9.695.000,-
+                  Pris pr. m² kr.
+                  3.962,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              2447 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              7369 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Betongulv
+                Betonspær
+                Hall
+                Kantine
+                Parkeringsplads
+                Port
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Køl
+            </t>
+  </si>
+  <si>
     <t>KONTOR TIL SALG - POPULÆR</t>
   </si>
   <si>
     <t>Amaliegade 28, 1256 København K</t>
   </si>
   <si>
+    <t>Sjældent udbudt erhvervsandel på 261 m2 i Amaliegade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 261 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                2.850.000,-
+                  Pris pr. m² kr.
+                  10.920,-
+                Årlige driftsudgifter kr.
+                197.478,-
+                  Årlige driftsudgifter pr. m² kr.
+                  757,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              261 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Cykelparkering
+                Depotrum
+                Mødelokale
+                Receptionsområde
+                Storrumskontor
+                Toiletfaciliteter
+                Køkken
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Lundsbjerg Industrivej 15, 6200 Aabenraa</t>
   </si>
   <si>
+    <t>Ejendom ved god infrastruktur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1359 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                5.500.000,-
+                  Årlige lejeindtægt kr.
+                  192.000,-
+                  Pris pr. m² kr.
+                  4.047,-
+                  Årlige lejeindtægt pr. m² kr.
+                  141,-
+                Årlige driftsudgifter kr.
+                66.504,-
+                  Årlige driftsudgifter pr. m² kr.
+                  49,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              1359 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              4762 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Port
+                Lager
+            </t>
+  </si>
+  <si>
     <t>Industrivænget 23, 4622 Havdrup</t>
   </si>
   <si>
+    <t>Blandet bolig/erhvervsejendom på 3.605 m2 grund</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1626 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Produktion
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                7.995.000,-
+                  Pris pr. m² kr.
+                  4.917,-
+                Årlige driftsudgifter kr.
+                34.296,-
+                  Årlige driftsudgifter pr. m² kr.
+                  21,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              1626 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              3605 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Balkon
+                Depotrum
+                Elementkøkken
+                Kælder
+                Opholdsrum
+                Træterrasse
+            </t>
+  </si>
+  <si>
     <t>Industrivangen 2C, 4550 Asnæs</t>
   </si>
   <si>
+    <t>Erhvervgrund med god synlighed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5784 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                995.000,-
+                  Pris pr. m² kr.
+                  172,-
+                Årlige driftsudgifter kr.
+                17.267,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              0 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              5784 m²
+            </t>
+  </si>
+  <si>
     <t>LAGER &amp; PRODUKTION TIL SALG - POPULÆR</t>
   </si>
   <si>
     <t>Haslevvej 22, 4100 Ringsted</t>
   </si>
   <si>
+    <t>Velbeliggende lager- / industriejendom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 703 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Produktion
+                Industriejendom
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                6.500.000,-
+                  Pris pr. m² kr.
+                  9.246,-
+                Årlige driftsudgifter kr.
+                35.190,-
+                  Årlige driftsudgifter pr. m² kr.
+                  50,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              703 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              6311 m²
+            </t>
+  </si>
+  <si>
     <t>ANDRE TYPER TIL SALG - POPULÆR</t>
   </si>
   <si>
     <t>Symfonivej 25, 2730 Herlev</t>
   </si>
   <si>
+    <t>Tæt på offentlig transport og motorvej</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 534 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Bolig og erhverv
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                5.600.000,-
+                  Pris pr. m² kr.
+                  10.487,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              534 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              1650 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Bad
+                Omklædning
+                Kælderrum
+                Lagerrum
+                Parkering
+                Køkken
+            </t>
+  </si>
+  <si>
     <t>Kærgårdsvej 6, 6800 Varde</t>
   </si>
   <si>
+    <t>Stor erhvervsejendom til produktion og industri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3374 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Produktion
+                Produktionsejendom
+                Industrivirksomhed
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                1.998.000,-
+                  Årlige lejeindtægt kr.
+                  72.000,-
+                  Pris pr. m² kr.
+                  592,-
+                  Årlige lejeindtægt pr. m² kr.
+                  21,-
+                Årlige driftsudgifter kr.
+                28.669,-
+                  Årlige driftsudgifter pr. m² kr.
+                  8,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              3374 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              7427 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Hall
+                Parkering
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Sortevej 12, 8543 Hornslet</t>
   </si>
   <si>
+    <t>2.200 m² alsidig erhvervsejendom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2198 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                11.500.000,-
+                  Pris pr. m² kr.
+                  5.232,-
+                Årlige driftsudgifter kr.
+                101.432,-
+                  Årlige driftsudgifter pr. m² kr.
+                  46,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              2198 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              7264 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Parkering
+                Port
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>HOTEL &amp; RESTAURANT TIL SALG - POPULÆR</t>
   </si>
   <si>
     <t>Majbøllevej 35, 4862 Guldborg</t>
   </si>
   <si>
+    <t>Tidligere restaurant med industrikøkken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 480 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  G
+                    Energimærke G
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Restaurant
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                800.000,-
+                  Pris pr. m² kr.
+                  1.667,-
+                Årlige driftsudgifter kr.
+                16.706,-
+                  Årlige driftsudgifter pr. m² kr.
+                  35,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              480 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              2338 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Parkeringsplads
+                Køkken
+            </t>
+  </si>
+  <si>
     <t>Kirkegade 4, 7490 Aulum</t>
   </si>
   <si>
+    <t>Interessant blandet erhvervsejendom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 469 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Café
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                1.775.000,-
+                  Pris pr. m² kr.
+                  3.785,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              469 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              370 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Bad
+                Toilet
+                Parkeringsforhold
+                Sydvendt
+                Terrasse
+                Køkken
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Enggårdvej 9, 7400 Herning</t>
   </si>
   <si>
+    <t>Blandet bolig og erhvervsejendom i Snejbjerg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1058 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Showroom
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                4.300.000,-
+                  Pris pr. m² kr.
+                  4.064,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              1058 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              3877 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Garage
+                Opholdsstue
+                Saddeltag
+                Trægulve
+                Tæppe
+                Køkken
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Christian X's Vej 95, 8260 Viby J</t>
   </si>
   <si>
+    <t>Velholdt og spændende klassisk villa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 427 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                5.500.000,-
+                  Pris pr. m² kr.
+                  12.881,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              427 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              1560 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Badeværelse
+                Toilet
+                Opbevaringsrum
+                Sauna
+                Køkken
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Gulvvarme
+            </t>
+  </si>
+  <si>
     <t>Scandiavej 7 , 8670 Låsby</t>
+  </si>
+  <si>
+    <t>Attraktiv grund i Låsby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6000 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                1.450.000,-
+                  Pris pr. m² kr.
+                  242,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              0 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              6000 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Parkeringsplads
+                Lager
+            </t>
   </si>
 </sst>
 </file>
@@ -504,223 +1623,1033 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:L27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
         <v>18</v>
       </c>
+      <c r="H23" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>193</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" t="s">
         <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/koeb.xlsx
+++ b/koeb.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="236">
   <si>
     <t>tag</t>
   </si>
@@ -49,16 +49,16 @@
     <t>technique</t>
   </si>
   <si>
-    <t>HOTEL &amp; RESTAURANT TIL SALG</t>
-  </si>
-  <si>
-    <t>John F. Kennedys Plads 41, 9000 Aalborg</t>
-  </si>
-  <si>
-    <t>Velbeliggende lokaler bl.a. oplagt til cafe/kaffebar mv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 338 m²</t>
+    <t>LAGER &amp; PRODUKTION TIL SALG</t>
+  </si>
+  <si>
+    <t>Rødovrevej 348, 2610 Rødovre</t>
+  </si>
+  <si>
+    <t>73 m² erhvervsejerlejlighed centralt i Rødovre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73 m²</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -67,10 +67,350 @@
             </t>
   </si>
   <si>
+    <t>278820406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lager &amp; Produktion </t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                775.000,-
+                  Pris pr. m² kr.
+                  10.616,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              73 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Betongulv
+                Garage
+                Indgangsparti
+                Lagerlokale
+                Lager
+            </t>
+  </si>
+  <si>
+    <t>HOTEL &amp; RESTAURANT TIL SALG</t>
+  </si>
+  <si>
+    <t>Løkkensvej 892, 9480 Løkken</t>
+  </si>
+  <si>
+    <t>Mulighedsrig ejendom på stor grund i skønne landlige omgivel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 603 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  D
+                    Energimærke D
+                  G
+            </t>
+  </si>
+  <si>
+    <t>ERH10088B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hotel &amp; Restaurant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                2.795.000,-
+                  Pris pr. m² kr.
+                  4.635,-
+                Årlige driftsudgifter kr.
+                34.835,-
+                  Årlige driftsudgifter pr. m² kr.
+                  58,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              603 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              30479 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Badeværelse
+                Toilet
+                Parkering
+                Køkken
+            </t>
+  </si>
+  <si>
+    <t>DETAILHANDEL/BUTIK TIL SALG</t>
+  </si>
+  <si>
+    <t>Katmosevej 18, 8800 Viborg</t>
+  </si>
+  <si>
+    <t>Udlejet forretningsejendom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2255 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  C
+                    Energimærke C
+            </t>
+  </si>
+  <si>
+    <t>2256VB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detailhandel/butik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                13.045.000,-
+                  Årlige lejeindtægt kr.
+                  935.016,-
+                  Pris pr. m² kr.
+                  5.785,-
+                  Årlige lejeindtægt pr. m² kr.
+                  415,-
+                Årlige driftsudgifter kr.
+                109.429,-
+                  Årlige driftsudgifter pr. m² kr.
+                  49,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              2255 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              8448 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Baderum
+                Omklædning
+                Betongulv
+                Kælder
+                Parkering
+                Port
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t>Solhøjvej 10, 8350 Hundslund</t>
+  </si>
+  <si>
+    <t>Lager- og kontorejendom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 582 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  A2010
+                    Energimærke A2010
+            </t>
+  </si>
+  <si>
+    <t>115960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                1.495.000,-
+                  Pris pr. m² kr.
+                  2.569,-
+                Årlige driftsudgifter kr.
+                9.173,-
+                  Årlige driftsudgifter pr. m² kr.
+                  16,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              582 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              2444 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Badeværelse
+                Toilet
+                Kælder
+                Rampe
+                Thekøkken
+                Port
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t>ANDRE TYPER TIL SALG</t>
+  </si>
+  <si>
+    <t>Præstøvej 61, 4700 Næstved</t>
+  </si>
+  <si>
+    <t>Blandet bolig og erhverv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 250 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  E
+                    Energimærke E
+            </t>
+  </si>
+  <si>
+    <t>ERH23082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andre typer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Restaurant
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                2.195.000,-
+                  Årlige lejeindtægt kr.
+                  90.000,-
+                  Pris pr. m² kr.
+                  8.780,-
+                  Årlige lejeindtægt pr. m² kr.
+                  360,-
+                Årlige driftsudgifter kr.
+                21.398,-
+                  Årlige driftsudgifter pr. m² kr.
+                  86,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              250 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              394 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Badeværelse
+                Garage
+                Toilet
+                Kælder
+                Spisekøkken
+                Opholdsstue
+                Viktualierum
+                Køkken
+            </t>
+  </si>
+  <si>
+    <t>Hededammen 4, 6705 Esbjerg Ø</t>
+  </si>
+  <si>
+    <t>Fleksibel erhvervsejendom på god, indhegnet grund i Esbjerg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1527 m²</t>
+  </si>
+  <si>
+    <t>67001141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Værksted
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                4.500.000,-
+                  Pris pr. m² kr.
+                  2.947,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              1527 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              11290 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Bad
+                Depotrum
+                Toilet
+                Hall
+                Lagerrum
+                Omklædningsrum
+                Parkering
+                Saddeltag
+                Port
+                Køkken
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Fjernvarme
+                Udsugning
+            </t>
+  </si>
+  <si>
+    <t>John F. Kennedys Plads 41, 9000 Aalborg</t>
+  </si>
+  <si>
+    <t>Velbeliggende lokaler bl.a. oplagt til cafe/kaffebar mv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 338 m²</t>
+  </si>
+  <si>
+    <t>91205991</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -110,9 +450,6 @@
             </t>
   </si>
   <si>
-    <t>LAGER &amp; PRODUKTION TIL SALG</t>
-  </si>
-  <si>
     <t>Assensvej 126, 5620 Glamsbjerg</t>
   </si>
   <si>
@@ -128,7 +465,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">Lager &amp; Produktion </t>
+    <t>29845</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -165,9 +502,6 @@
             </t>
   </si>
   <si>
-    <t>ANDRE TYPER TIL SALG</t>
-  </si>
-  <si>
     <t>Søndergade 17B, 4130 Viby Sjælland</t>
   </si>
   <si>
@@ -181,7 +515,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">Andre typer </t>
+    <t>901BE014B</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -224,6 +558,15 @@
     <t xml:space="preserve"> 507 m²</t>
   </si>
   <si>
+    <t>469007175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Produktion
+                Lager
+            </t>
+  </si>
+  <si>
     <t xml:space="preserve">
                 Pris i kr.
                 3.495.000,-
@@ -266,6 +609,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 2415 m²</t>
+  </si>
+  <si>
+    <t>34202771</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -325,6 +671,9 @@
     <t xml:space="preserve"> 1063 m²</t>
   </si>
   <si>
+    <t>2023034</t>
+  </si>
+  <si>
     <t xml:space="preserve">
                 Pris i kr.
                 4.995.000,-
@@ -356,6 +705,117 @@
             </t>
   </si>
   <si>
+    <t>Industrivej Nord 7A, 7400 Herning</t>
+  </si>
+  <si>
+    <t>Lager-/distributionsejendom med store søjlefrie haller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2447 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  B
+                    Energimærke B
+            </t>
+  </si>
+  <si>
+    <t>709006756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                9.695.000,-
+                  Pris pr. m² kr.
+                  3.962,-
+                Årlige driftsudgifter kr.
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              2447 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              7369 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Betongulv
+                Betonspær
+                Hall
+                Kantine
+                Parkeringsplads
+                Port
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Køl
+            </t>
+  </si>
+  <si>
+    <t>KONTOR TIL SALG - POPULÆR</t>
+  </si>
+  <si>
+    <t>Amaliegade 28, 1256 København K</t>
+  </si>
+  <si>
+    <t>Sjældent udbudt erhvervsandel på 261 m2 i Amaliegade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 261 m²</t>
+  </si>
+  <si>
+    <t>SH1256SAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Pris i kr.
+                2.850.000,-
+                  Pris pr. m² kr.
+                  10.920,-
+                Årlige driftsudgifter kr.
+                197.478,-
+                  Årlige driftsudgifter pr. m² kr.
+                  757,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              261 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Cykelparkering
+                Depotrum
+                Mødelokale
+                Receptionsområde
+                Storrumskontor
+                Toiletfaciliteter
+                Køkken
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>KONTOR TIL SALG</t>
   </si>
   <si>
@@ -368,13 +828,7 @@
     <t xml:space="preserve"> 2353 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  C
-                    Energimærke C
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontor </t>
+    <t>K1212202293S</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -412,9 +866,6 @@
             </t>
   </si>
   <si>
-    <t>DETAILHANDEL/BUTIK TIL SALG</t>
-  </si>
-  <si>
     <t>Vestergade 13, 6800 Varde</t>
   </si>
   <si>
@@ -424,13 +875,7 @@
     <t xml:space="preserve"> 961 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  E
-                    Energimærke E
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detailhandel/butik </t>
+    <t>670114032</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -470,6 +915,9 @@
             </t>
   </si>
   <si>
+    <t>LAGER &amp; PRODUKTION TIL SALG - POPULÆR</t>
+  </si>
+  <si>
     <t>Herredsvej 64B, 8210 Aarhus V</t>
   </si>
   <si>
@@ -477,6 +925,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 184 m²</t>
+  </si>
+  <si>
+    <t>813003022</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -522,10 +973,13 @@
     <t xml:space="preserve"> 82 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>114057670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Butik
                 Café
                 Butikker
-                Butik
             </t>
   </si>
   <si>
@@ -565,6 +1019,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 645 m²</t>
+  </si>
+  <si>
+    <t>1235537</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -611,6 +1068,9 @@
     <t xml:space="preserve"> 2511 m²</t>
   </si>
   <si>
+    <t>1718366</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grunde </t>
   </si>
   <si>
@@ -634,108 +1094,6 @@
             </t>
   </si>
   <si>
-    <t>Industrivej Nord 7A, 7400 Herning</t>
-  </si>
-  <si>
-    <t>Lager-/distributionsejendom med store søjlefrie haller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2447 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                  B
-                    Energimærke B
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                9.695.000,-
-                  Pris pr. m² kr.
-                  3.962,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              2447 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              7369 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Betongulv
-                Betonspær
-                Hall
-                Kantine
-                Parkeringsplads
-                Port
-                Lager
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Køl
-            </t>
-  </si>
-  <si>
-    <t>KONTOR TIL SALG - POPULÆR</t>
-  </si>
-  <si>
-    <t>Amaliegade 28, 1256 København K</t>
-  </si>
-  <si>
-    <t>Sjældent udbudt erhvervsandel på 261 m2 i Amaliegade</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 261 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                2.850.000,-
-                  Pris pr. m² kr.
-                  10.920,-
-                Årlige driftsudgifter kr.
-                197.478,-
-                  Årlige driftsudgifter pr. m² kr.
-                  757,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              261 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Cykelparkering
-                Depotrum
-                Mødelokale
-                Receptionsområde
-                Storrumskontor
-                Toiletfaciliteter
-                Køkken
-                Kontor
-            </t>
-  </si>
-  <si>
     <t>Lundsbjerg Industrivej 15, 6200 Aabenraa</t>
   </si>
   <si>
@@ -743,6 +1101,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 1359 m²</t>
+  </si>
+  <si>
+    <t>214861</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -786,6 +1147,9 @@
     <t xml:space="preserve"> 1626 m²</t>
   </si>
   <si>
+    <t>ML70092</t>
+  </si>
+  <si>
     <t xml:space="preserve">
                 Produktion
             </t>
@@ -832,6 +1196,9 @@
     <t xml:space="preserve"> 5784 m²</t>
   </si>
   <si>
+    <t>9270000105</t>
+  </si>
+  <si>
     <t xml:space="preserve">
                 Pris i kr.
                 995.000,-
@@ -852,9 +1219,6 @@
             </t>
   </si>
   <si>
-    <t>LAGER &amp; PRODUKTION TIL SALG - POPULÆR</t>
-  </si>
-  <si>
     <t>Haslevvej 22, 4100 Ringsted</t>
   </si>
   <si>
@@ -864,9 +1228,12 @@
     <t xml:space="preserve"> 703 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>11522349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Industriejendom
                 Produktion
-                Industriejendom
                 Lager
             </t>
   </si>
@@ -905,8 +1272,11 @@
     <t xml:space="preserve"> 534 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Bolig og erhverv
+    <t>114057729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Bolig erhverv
             </t>
   </si>
   <si>
@@ -949,11 +1319,14 @@
     <t xml:space="preserve"> 3374 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>3761-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Industrivirksomhed
+                Lager
                 Produktion
                 Produktionsejendom
-                Industrivirksomhed
-                Lager
             </t>
   </si>
   <si>
@@ -988,264 +1361,6 @@
                 Parkering
                 Lager
                 Kontor
-            </t>
-  </si>
-  <si>
-    <t>Sortevej 12, 8543 Hornslet</t>
-  </si>
-  <si>
-    <t>2.200 m² alsidig erhvervsejendom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2198 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                11.500.000,-
-                  Pris pr. m² kr.
-                  5.232,-
-                Årlige driftsudgifter kr.
-                101.432,-
-                  Årlige driftsudgifter pr. m² kr.
-                  46,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              2198 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              7264 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Parkering
-                Port
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t>HOTEL &amp; RESTAURANT TIL SALG - POPULÆR</t>
-  </si>
-  <si>
-    <t>Majbøllevej 35, 4862 Guldborg</t>
-  </si>
-  <si>
-    <t>Tidligere restaurant med industrikøkken</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 480 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                  G
-                    Energimærke G
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Restaurant
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                800.000,-
-                  Pris pr. m² kr.
-                  1.667,-
-                Årlige driftsudgifter kr.
-                16.706,-
-                  Årlige driftsudgifter pr. m² kr.
-                  35,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              480 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              2338 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Parkeringsplads
-                Køkken
-            </t>
-  </si>
-  <si>
-    <t>Kirkegade 4, 7490 Aulum</t>
-  </si>
-  <si>
-    <t>Interessant blandet erhvervsejendom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 469 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Café
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                1.775.000,-
-                  Pris pr. m² kr.
-                  3.785,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              469 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              370 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Bad
-                Toilet
-                Parkeringsforhold
-                Sydvendt
-                Terrasse
-                Køkken
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t>Enggårdvej 9, 7400 Herning</t>
-  </si>
-  <si>
-    <t>Blandet bolig og erhvervsejendom i Snejbjerg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1058 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Showroom
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                4.300.000,-
-                  Pris pr. m² kr.
-                  4.064,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              1058 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              3877 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Garage
-                Opholdsstue
-                Saddeltag
-                Trægulve
-                Tæppe
-                Køkken
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t>Christian X's Vej 95, 8260 Viby J</t>
-  </si>
-  <si>
-    <t>Velholdt og spændende klassisk villa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 427 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                5.500.000,-
-                  Pris pr. m² kr.
-                  12.881,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              427 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              1560 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Badeværelse
-                Toilet
-                Opbevaringsrum
-                Sauna
-                Køkken
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Gulvvarme
-            </t>
-  </si>
-  <si>
-    <t>Scandiavej 7 , 8670 Låsby</t>
-  </si>
-  <si>
-    <t>Attraktiv grund i Låsby</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6000 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                1.450.000,-
-                  Pris pr. m² kr.
-                  242,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              0 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              6000 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Parkeringsplads
-                Lager
             </t>
   </si>
 </sst>
@@ -1699,88 +1814,88 @@
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
       </c>
       <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
       </c>
       <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>42</v>
       </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -1792,864 +1907,864 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
         <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="H21" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="H23" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="I23" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="H24" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="J24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="J26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/koeb.xlsx
+++ b/koeb.xlsx
@@ -96,13 +96,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Betongulv
-                Garage
-                Indgangsparti
-                Lagerlokale
-                Lager
-            </t>
+    <t>Betongulv, Garage, Indgangsparti, Lagerlokale, Lager</t>
   </si>
   <si>
     <t>HOTEL &amp; RESTAURANT TIL SALG</t>
@@ -152,12 +146,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Badeværelse
-                Toilet
-                Parkering
-                Køkken
-            </t>
+    <t>Badeværelse, Toilet, Parkering, Køkken</t>
   </si>
   <si>
     <t>DETAILHANDEL/BUTIK TIL SALG</t>
@@ -210,16 +199,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Baderum
-                Omklædning
-                Betongulv
-                Kælder
-                Parkering
-                Port
-                Lager
-                Kontor
-            </t>
+    <t>Baderum, Omklædning, Betongulv, Kælder, Parkering, Port, Lager, Kontor</t>
   </si>
   <si>
     <t>Solhøjvej 10, 8350 Hundslund</t>
@@ -262,16 +242,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Badeværelse
-                Toilet
-                Kælder
-                Rampe
-                Thekøkken
-                Port
-                Lager
-                Kontor
-            </t>
+    <t>Badeværelse, Toilet, Kælder, Rampe, Thekøkken, Port, Lager, Kontor</t>
   </si>
   <si>
     <t>ANDRE TYPER TIL SALG</t>
@@ -298,9 +269,7 @@
     <t xml:space="preserve">Andre typer </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Restaurant
-            </t>
+    <t>Restaurant</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -329,16 +298,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Badeværelse
-                Garage
-                Toilet
-                Kælder
-                Spisekøkken
-                Opholdsstue
-                Viktualierum
-                Køkken
-            </t>
+    <t>Badeværelse, Garage, Toilet, Kælder, Spisekøkken, Opholdsstue, Viktualierum, Køkken</t>
   </si>
   <si>
     <t>Hededammen 4, 6705 Esbjerg Ø</t>
@@ -353,10 +313,7 @@
     <t>67001141</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Værksted
-                Lager
-            </t>
+    <t>Værksted, Lager</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -379,26 +336,10 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Bad
-                Depotrum
-                Toilet
-                Hall
-                Lagerrum
-                Omklædningsrum
-                Parkering
-                Saddeltag
-                Port
-                Køkken
-                Lager
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Fjernvarme
-                Udsugning
-            </t>
+    <t>Bad, Depotrum, Toilet, Hall, Lagerrum, Omklædningsrum, Parkering, Saddeltag, Port, Køkken, Lager, Kontor</t>
+  </si>
+  <si>
+    <t>Fjernvarme, Udsugning</t>
   </si>
   <si>
     <t>John F. Kennedys Plads 41, 9000 Aalborg</t>
@@ -413,10 +354,7 @@
     <t>91205991</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Café
-                Kaffebar
-            </t>
+    <t>Café, Kaffebar</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -439,15 +377,10 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Kælder
-                Lager
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Udsugning
-            </t>
+    <t>Kælder, Lager</t>
+  </si>
+  <si>
+    <t>Udsugning</t>
   </si>
   <si>
     <t>Assensvej 126, 5620 Glamsbjerg</t>
@@ -468,9 +401,7 @@
     <t>29845</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Lager
-            </t>
+    <t>Lager</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -495,11 +426,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Port
-                Lager
-                Kontor
-            </t>
+    <t>Port, Lager, Kontor</t>
   </si>
   <si>
     <t>Søndergade 17B, 4130 Viby Sjælland</t>
@@ -518,9 +445,7 @@
     <t>901BE014B</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Institution
-            </t>
+    <t>Institution</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -561,10 +486,7 @@
     <t>469007175</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Produktion
-                Lager
-            </t>
+    <t>Produktion, Lager</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -587,19 +509,10 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Bad
-                Toilet
-                Parkering
-                Køkken
-                Lager
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Ventilation
-            </t>
+    <t>Bad, Toilet, Parkering, Køkken, Lager, Kontor</t>
+  </si>
+  <si>
+    <t>Ventilation</t>
   </si>
   <si>
     <t>Bakkegårdsvej 408, 3050 Humlebæk</t>
@@ -614,10 +527,7 @@
     <t>34202771</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Lagerbygning
-                Lager
-            </t>
+    <t>Lagerbygning, Lager</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -640,26 +550,10 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Depot
-                Bad
-                Omklædning
-                Betongulv
-                Toilet
-                Indgangsparti
-                Kælder
-                Mødelokale
-                Port
-                Køkken
-                Lager
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Fjernvarme
-                Naturgasanlæg
-            </t>
+    <t>Depot, Bad, Omklædning, Betongulv, Toilet, Indgangsparti, Kælder, Mødelokale, Port, Køkken, Lager, Kontor</t>
+  </si>
+  <si>
+    <t>Fjernvarme, Naturgasanlæg</t>
   </si>
   <si>
     <t>Ferrarivej 5, 7100 Vejle</t>
@@ -694,15 +588,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Badeværelse
-                Kantine
-                Rampe
-                Mødelokale
-                Port
-                Lager
-                Kontor
-            </t>
+    <t>Badeværelse, Kantine, Rampe, Mødelokale, Port, Lager, Kontor</t>
   </si>
   <si>
     <t>Industrivej Nord 7A, 7400 Herning</t>
@@ -743,20 +629,10 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Betongulv
-                Betonspær
-                Hall
-                Kantine
-                Parkeringsplads
-                Port
-                Lager
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Køl
-            </t>
+    <t>Betongulv, Betonspær, Hall, Kantine, Parkeringsplads, Port, Lager</t>
+  </si>
+  <si>
+    <t>Køl</t>
   </si>
   <si>
     <t>KONTOR TIL SALG - POPULÆR</t>
@@ -777,9 +653,7 @@
     <t xml:space="preserve">Kontor </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Kontor
-            </t>
+    <t>Kontor</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -804,16 +678,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Cykelparkering
-                Depotrum
-                Mødelokale
-                Receptionsområde
-                Storrumskontor
-                Toiletfaciliteter
-                Køkken
-                Kontor
-            </t>
+    <t>Cykelparkering, Depotrum, Mødelokale, Receptionsområde, Storrumskontor, Toiletfaciliteter, Køkken, Kontor</t>
   </si>
   <si>
     <t>KONTOR TIL SALG</t>
@@ -831,9 +696,7 @@
     <t>K1212202293S</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Klinik
-            </t>
+    <t>Klinik</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -858,12 +721,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Gård
-                Kælder
-                Parkeringsplads
-                Port
-            </t>
+    <t>Gård, Kælder, Parkeringsplads, Port</t>
   </si>
   <si>
     <t>Vestergade 13, 6800 Varde</t>
@@ -878,11 +736,7 @@
     <t>670114032</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Apotek
-                Butikker
-                Butik
-            </t>
+    <t>Apotek, Butikker, Butik</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -905,14 +759,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Toilet
-                Tekøkken
-                Mødelokale
-                Parkeringsplads
-                Lager
-                Kontor
-            </t>
+    <t>Toilet, Tekøkken, Mødelokale, Parkeringsplads, Lager, Kontor</t>
   </si>
   <si>
     <t>LAGER &amp; PRODUKTION TIL SALG - POPULÆR</t>
@@ -930,10 +777,7 @@
     <t>813003022</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Lager
-                Værksted
-            </t>
+    <t>Lager, Værksted</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -956,9 +800,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Fjernvarme
-            </t>
+    <t>Fjernvarme</t>
   </si>
   <si>
     <t>DETAILHANDEL/BUTIK TIL SALG - POPULÆR</t>
@@ -976,11 +818,7 @@
     <t>114057670</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Butik
-                Café
-                Butikker
-            </t>
+    <t>Butik, Café, Butikker</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1003,13 +841,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Toilet
-                Tekøkken
-                Gårdsplads
-                Lager
-                Kontor
-            </t>
+    <t>Toilet, Tekøkken, Gårdsplads, Lager, Kontor</t>
   </si>
   <si>
     <t>Odensevej 147, 5492 Vissenbjerg</t>
@@ -1050,10 +882,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Badeværelse
-                Kælder
-            </t>
+    <t>Badeværelse, Kælder</t>
   </si>
   <si>
     <t>GRUNDE TIL SALG</t>
@@ -1132,10 +961,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Port
-                Lager
-            </t>
+    <t>Port, Lager</t>
   </si>
   <si>
     <t>Industrivænget 23, 4622 Havdrup</t>
@@ -1150,9 +976,7 @@
     <t>ML70092</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Produktion
-            </t>
+    <t>Produktion</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1177,14 +1001,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Balkon
-                Depotrum
-                Elementkøkken
-                Kælder
-                Opholdsrum
-                Træterrasse
-            </t>
+    <t>Balkon, Depotrum, Elementkøkken, Kælder, Opholdsrum, Træterrasse</t>
   </si>
   <si>
     <t>Industrivangen 2C, 4550 Asnæs</t>
@@ -1231,11 +1048,7 @@
     <t>11522349</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Industriejendom
-                Produktion
-                Lager
-            </t>
+    <t>Industriejendom, Produktion, Lager</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1275,9 +1088,7 @@
     <t>114057729</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Bolig erhverv
-            </t>
+    <t>Bolig erhverv</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1300,14 +1111,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Bad
-                Omklædning
-                Kælderrum
-                Lagerrum
-                Parkering
-                Køkken
-            </t>
+    <t>Bad, Omklædning, Kælderrum, Lagerrum, Parkering, Køkken</t>
   </si>
   <si>
     <t>Kærgårdsvej 6, 6800 Varde</t>
@@ -1322,12 +1126,7 @@
     <t>3761-S</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Industrivirksomhed
-                Lager
-                Produktion
-                Produktionsejendom
-            </t>
+    <t>Industrivirksomhed, Lager, Produktion, Produktionsejendom</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1356,12 +1155,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Hall
-                Parkering
-                Lager
-                Kontor
-            </t>
+    <t>Hall, Parkering, Lager, Kontor</t>
   </si>
 </sst>
 </file>

--- a/koeb.xlsx
+++ b/koeb.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="235">
   <si>
     <t>tag</t>
   </si>
@@ -61,10 +61,7 @@
     <t xml:space="preserve"> 73 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  D
-                    Energimærke D
-            </t>
+    <t>D Energimærke D</t>
   </si>
   <si>
     <t>278820406</t>
@@ -76,24 +73,10 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                775.000,-
-                  Pris pr. m² kr.
-                  10.616,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              73 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Pris i kr. 775.000,- Pris pr. m² kr. 10.616,- Årlige driftsudgifter kr. 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 73 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Betongulv, Garage, Indgangsparti, Lagerlokale, Lager</t>
@@ -111,11 +94,7 @@
     <t xml:space="preserve"> 603 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  D
-                    Energimærke D
-                  G
-            </t>
+    <t>D Energimærke D G</t>
   </si>
   <si>
     <t>ERH10088B</t>
@@ -124,26 +103,10 @@
     <t xml:space="preserve">Hotel &amp; Restaurant </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                2.795.000,-
-                  Pris pr. m² kr.
-                  4.635,-
-                Årlige driftsudgifter kr.
-                34.835,-
-                  Årlige driftsudgifter pr. m² kr.
-                  58,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              603 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              30479 m²
-            </t>
+    <t>Pris i kr. 2.795.000,- Pris pr. m² kr. 4.635,- Årlige driftsudgifter kr. 34.835,- Årlige driftsudgifter pr. m² kr. 58,-</t>
+  </si>
+  <si>
+    <t>Etage areal 603 m² Sekundært areal 0 m² Grund areal 30479 m²</t>
   </si>
   <si>
     <t>Badeværelse, Toilet, Parkering, Køkken</t>
@@ -161,10 +124,7 @@
     <t xml:space="preserve"> 2255 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  C
-                    Energimærke C
-            </t>
+    <t>C Energimærke C</t>
   </si>
   <si>
     <t>2256VB</t>
@@ -173,30 +133,10 @@
     <t xml:space="preserve">Detailhandel/butik </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                13.045.000,-
-                  Årlige lejeindtægt kr.
-                  935.016,-
-                  Pris pr. m² kr.
-                  5.785,-
-                  Årlige lejeindtægt pr. m² kr.
-                  415,-
-                Årlige driftsudgifter kr.
-                109.429,-
-                  Årlige driftsudgifter pr. m² kr.
-                  49,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              2255 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              8448 m²
-            </t>
+    <t>Pris i kr. 13.045.000,- Årlige lejeindtægt kr. 935.016,- Pris pr. m² kr. 5.785,- Årlige lejeindtægt pr. m² kr. 415,- Årlige driftsudgifter kr. 109.429,- Årlige driftsudgifter pr. m² kr. 49,-</t>
+  </si>
+  <si>
+    <t>Etage areal 2255 m² Sekundært areal 0 m² Grund areal 8448 m²</t>
   </si>
   <si>
     <t>Baderum, Omklædning, Betongulv, Kælder, Parkering, Port, Lager, Kontor</t>
@@ -211,35 +151,16 @@
     <t xml:space="preserve"> 582 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  A2010
-                    Energimærke A2010
-            </t>
+    <t>A2010 Energimærke A2010</t>
   </si>
   <si>
     <t>115960</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                1.495.000,-
-                  Pris pr. m² kr.
-                  2.569,-
-                Årlige driftsudgifter kr.
-                9.173,-
-                  Årlige driftsudgifter pr. m² kr.
-                  16,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              582 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              2444 m²
-            </t>
+    <t>Pris i kr. 1.495.000,- Pris pr. m² kr. 2.569,- Årlige driftsudgifter kr. 9.173,- Årlige driftsudgifter pr. m² kr. 16,-</t>
+  </si>
+  <si>
+    <t>Etage areal 582 m² Sekundært areal 0 m² Grund areal 2444 m²</t>
   </si>
   <si>
     <t>Badeværelse, Toilet, Kælder, Rampe, Thekøkken, Port, Lager, Kontor</t>
@@ -257,10 +178,7 @@
     <t xml:space="preserve"> 250 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  E
-                    Energimærke E
-            </t>
+    <t>E Energimærke E</t>
   </si>
   <si>
     <t>ERH23082</t>
@@ -272,30 +190,10 @@
     <t>Restaurant</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                2.195.000,-
-                  Årlige lejeindtægt kr.
-                  90.000,-
-                  Pris pr. m² kr.
-                  8.780,-
-                  Årlige lejeindtægt pr. m² kr.
-                  360,-
-                Årlige driftsudgifter kr.
-                21.398,-
-                  Årlige driftsudgifter pr. m² kr.
-                  86,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              250 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              394 m²
-            </t>
+    <t>Pris i kr. 2.195.000,- Årlige lejeindtægt kr. 90.000,- Pris pr. m² kr. 8.780,- Årlige lejeindtægt pr. m² kr. 360,- Årlige driftsudgifter kr. 21.398,- Årlige driftsudgifter pr. m² kr. 86,-</t>
+  </si>
+  <si>
+    <t>Etage areal 250 m² Sekundært areal 0 m² Grund areal 394 m²</t>
   </si>
   <si>
     <t>Badeværelse, Garage, Toilet, Kælder, Spisekøkken, Opholdsstue, Viktualierum, Køkken</t>
@@ -316,24 +214,10 @@
     <t>Værksted, Lager</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                4.500.000,-
-                  Pris pr. m² kr.
-                  2.947,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              1527 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              11290 m²
-            </t>
+    <t>Pris i kr. 4.500.000,- Pris pr. m² kr. 2.947,- Årlige driftsudgifter kr. 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 1527 m² Sekundært areal 0 m² Grund areal 11290 m²</t>
   </si>
   <si>
     <t>Bad, Depotrum, Toilet, Hall, Lagerrum, Omklædningsrum, Parkering, Saddeltag, Port, Køkken, Lager, Kontor</t>
@@ -357,24 +241,10 @@
     <t>Café, Kaffebar</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                6.000.000,-
-                  Pris pr. m² kr.
-                  17.751,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              338 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Pris i kr. 6.000.000,- Pris pr. m² kr. 17.751,- Årlige driftsudgifter kr. 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 338 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Kælder, Lager</t>
@@ -392,10 +262,7 @@
     <t xml:space="preserve"> 2768 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  F
-                    Energimærke F
-            </t>
+    <t>F Energimærke F</t>
   </si>
   <si>
     <t>29845</t>
@@ -404,26 +271,10 @@
     <t>Lager</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                4.200.000,-
-                  Pris pr. m² kr.
-                  1.517,-
-                Årlige driftsudgifter kr.
-                203.466,-
-                  Årlige driftsudgifter pr. m² kr.
-                  74,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              2768 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              16630 m²
-            </t>
+    <t>Pris i kr. 4.200.000,- Pris pr. m² kr. 1.517,- Årlige driftsudgifter kr. 203.466,- Årlige driftsudgifter pr. m² kr. 74,-</t>
+  </si>
+  <si>
+    <t>Etage areal 2768 m² Sekundært areal 0 m² Grund areal 16630 m²</t>
   </si>
   <si>
     <t>Port, Lager, Kontor</t>
@@ -438,40 +289,16 @@
     <t xml:space="preserve"> 577 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-            </t>
-  </si>
-  <si>
     <t>901BE014B</t>
   </si>
   <si>
     <t>Institution</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                4.950.000,-
-                  Årlige lejeindtægt kr.
-                  436.440,-
-                  Pris pr. m² kr.
-                  8.579,-
-                  Årlige lejeindtægt pr. m² kr.
-                  756,-
-                Årlige driftsudgifter kr.
-                79.596,-
-                  Årlige driftsudgifter pr. m² kr.
-                  138,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              577 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              761 m²
-            </t>
+    <t>Pris i kr. 4.950.000,- Årlige lejeindtægt kr. 436.440,- Pris pr. m² kr. 8.579,- Årlige lejeindtægt pr. m² kr. 756,- Årlige driftsudgifter kr. 79.596,- Årlige driftsudgifter pr. m² kr. 138,-</t>
+  </si>
+  <si>
+    <t>Etage areal 577 m² Sekundært areal 0 m² Grund areal 761 m²</t>
   </si>
   <si>
     <t>Bjergvej 6, 4672 Klippinge</t>
@@ -489,24 +316,10 @@
     <t>Produktion, Lager</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                3.495.000,-
-                  Pris pr. m² kr.
-                  6.893,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              507 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              2803 m²
-            </t>
+    <t>Pris i kr. 3.495.000,- Pris pr. m² kr. 6.893,- Årlige driftsudgifter kr. 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 507 m² Sekundært areal 0 m² Grund areal 2803 m²</t>
   </si>
   <si>
     <t>Bad, Toilet, Parkering, Køkken, Lager, Kontor</t>
@@ -530,24 +343,10 @@
     <t>Lagerbygning, Lager</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                12.500.000,-
-                  Pris pr. m² kr.
-                  5.176,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              2415 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              6000 m²
-            </t>
+    <t>Pris i kr. 12.500.000,- Pris pr. m² kr. 5.176,- Årlige driftsudgifter kr. 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 2415 m² Sekundært areal 0 m² Grund areal 6000 m²</t>
   </si>
   <si>
     <t>Depot, Bad, Omklædning, Betongulv, Toilet, Indgangsparti, Kælder, Mødelokale, Port, Køkken, Lager, Kontor</t>
@@ -568,24 +367,10 @@
     <t>2023034</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                4.995.000,-
-                  Pris pr. m² kr.
-                  4.699,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              1063 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              2688 m²
-            </t>
+    <t>Pris i kr. 4.995.000,- Pris pr. m² kr. 4.699,- Årlige driftsudgifter kr. 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 1063 m² Sekundært areal 0 m² Grund areal 2688 m²</t>
   </si>
   <si>
     <t>Badeværelse, Kantine, Rampe, Mødelokale, Port, Lager, Kontor</t>
@@ -600,33 +385,16 @@
     <t xml:space="preserve"> 2447 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  B
-                    Energimærke B
-            </t>
+    <t>B Energimærke B</t>
   </si>
   <si>
     <t>709006756</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                9.695.000,-
-                  Pris pr. m² kr.
-                  3.962,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              2447 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              7369 m²
-            </t>
+    <t>Pris i kr. 9.695.000,- Pris pr. m² kr. 3.962,- Årlige driftsudgifter kr. 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 2447 m² Sekundært areal 0 m² Grund areal 7369 m²</t>
   </si>
   <si>
     <t>Betongulv, Betonspær, Hall, Kantine, Parkeringsplads, Port, Lager</t>
@@ -656,26 +424,10 @@
     <t>Kontor</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                2.850.000,-
-                  Pris pr. m² kr.
-                  10.920,-
-                Årlige driftsudgifter kr.
-                197.478,-
-                  Årlige driftsudgifter pr. m² kr.
-                  757,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              261 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Pris i kr. 2.850.000,- Pris pr. m² kr. 10.920,- Årlige driftsudgifter kr. 197.478,- Årlige driftsudgifter pr. m² kr. 757,-</t>
+  </si>
+  <si>
+    <t>Etage areal 261 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Cykelparkering, Depotrum, Mødelokale, Receptionsområde, Storrumskontor, Toiletfaciliteter, Køkken, Kontor</t>
@@ -699,26 +451,10 @@
     <t>Klinik</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                25.900.000,-
-                  Pris pr. m² kr.
-                  11.007,-
-                Årlige driftsudgifter kr.
-                539.512,-
-                  Årlige driftsudgifter pr. m² kr.
-                  229,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              2353 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Pris i kr. 25.900.000,- Pris pr. m² kr. 11.007,- Årlige driftsudgifter kr. 539.512,- Årlige driftsudgifter pr. m² kr. 229,-</t>
+  </si>
+  <si>
+    <t>Etage areal 2353 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Gård, Kælder, Parkeringsplads, Port</t>
@@ -739,24 +475,10 @@
     <t>Apotek, Butikker, Butik</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                5.500.000,-
-                  Pris pr. m² kr.
-                  5.723,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              961 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              999 m²
-            </t>
+    <t>Pris i kr. 5.500.000,- Pris pr. m² kr. 5.723,- Årlige driftsudgifter kr. 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 961 m² Sekundært areal 0 m² Grund areal 999 m²</t>
   </si>
   <si>
     <t>Toilet, Tekøkken, Mødelokale, Parkeringsplads, Lager, Kontor</t>
@@ -780,24 +502,10 @@
     <t>Lager, Værksted</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                1.800.000,-
-                  Pris pr. m² kr.
-                  9.783,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              184 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              1149 m²
-            </t>
+    <t>Pris i kr. 1.800.000,- Pris pr. m² kr. 9.783,- Årlige driftsudgifter kr. 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 184 m² Sekundært areal 0 m² Grund areal 1149 m²</t>
   </si>
   <si>
     <t>Fjernvarme</t>
@@ -821,24 +529,10 @@
     <t>Butik, Café, Butikker</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                995.000,-
-                  Pris pr. m² kr.
-                  12.134,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              82 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Pris i kr. 995.000,- Pris pr. m² kr. 12.134,- Årlige driftsudgifter kr. 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 82 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Toilet, Tekøkken, Gårdsplads, Lager, Kontor</t>
@@ -856,30 +550,10 @@
     <t>1235537</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                1.650.000,-
-                  Årlige lejeindtægt kr.
-                  60.000,-
-                  Pris pr. m² kr.
-                  2.558,-
-                  Årlige lejeindtægt pr. m² kr.
-                  93,-
-                Årlige driftsudgifter kr.
-                29.474,-
-                  Årlige driftsudgifter pr. m² kr.
-                  46,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              645 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              3591 m²
-            </t>
+    <t>Pris i kr. 1.650.000,- Årlige lejeindtægt kr. 60.000,- Pris pr. m² kr. 2.558,- Årlige lejeindtægt pr. m² kr. 93,- Årlige driftsudgifter kr. 29.474,- Årlige driftsudgifter pr. m² kr. 46,-</t>
+  </si>
+  <si>
+    <t>Etage areal 645 m² Sekundært areal 0 m² Grund areal 3591 m²</t>
   </si>
   <si>
     <t>Badeværelse, Kælder</t>
@@ -903,24 +577,10 @@
     <t xml:space="preserve">Grunde </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                1.950.000,-
-                  Pris pr. m² kr.
-                  777,-
-                Årlige driftsudgifter kr.
-                7.815,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              0 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              2511 m²
-            </t>
+    <t>Pris i kr. 1.950.000,- Pris pr. m² kr. 777,- Årlige driftsudgifter kr. 7.815,-</t>
+  </si>
+  <si>
+    <t>Etage areal 0 m² Sekundært areal 0 m² Grund areal 2511 m²</t>
   </si>
   <si>
     <t>Lundsbjerg Industrivej 15, 6200 Aabenraa</t>
@@ -935,30 +595,10 @@
     <t>214861</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                5.500.000,-
-                  Årlige lejeindtægt kr.
-                  192.000,-
-                  Pris pr. m² kr.
-                  4.047,-
-                  Årlige lejeindtægt pr. m² kr.
-                  141,-
-                Årlige driftsudgifter kr.
-                66.504,-
-                  Årlige driftsudgifter pr. m² kr.
-                  49,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              1359 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              4762 m²
-            </t>
+    <t>Pris i kr. 5.500.000,- Årlige lejeindtægt kr. 192.000,- Pris pr. m² kr. 4.047,- Årlige lejeindtægt pr. m² kr. 141,- Årlige driftsudgifter kr. 66.504,- Årlige driftsudgifter pr. m² kr. 49,-</t>
+  </si>
+  <si>
+    <t>Etage areal 1359 m² Sekundært areal 0 m² Grund areal 4762 m²</t>
   </si>
   <si>
     <t>Port, Lager</t>
@@ -979,26 +619,10 @@
     <t>Produktion</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                7.995.000,-
-                  Pris pr. m² kr.
-                  4.917,-
-                Årlige driftsudgifter kr.
-                34.296,-
-                  Årlige driftsudgifter pr. m² kr.
-                  21,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              1626 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              3605 m²
-            </t>
+    <t>Pris i kr. 7.995.000,- Pris pr. m² kr. 4.917,- Årlige driftsudgifter kr. 34.296,- Årlige driftsudgifter pr. m² kr. 21,-</t>
+  </si>
+  <si>
+    <t>Etage areal 1626 m² Sekundært areal 0 m² Grund areal 3605 m²</t>
   </si>
   <si>
     <t>Balkon, Depotrum, Elementkøkken, Kælder, Opholdsrum, Træterrasse</t>
@@ -1016,24 +640,10 @@
     <t>9270000105</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                995.000,-
-                  Pris pr. m² kr.
-                  172,-
-                Årlige driftsudgifter kr.
-                17.267,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              0 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              5784 m²
-            </t>
+    <t>Pris i kr. 995.000,- Pris pr. m² kr. 172,- Årlige driftsudgifter kr. 17.267,-</t>
+  </si>
+  <si>
+    <t>Etage areal 0 m² Sekundært areal 0 m² Grund areal 5784 m²</t>
   </si>
   <si>
     <t>Haslevvej 22, 4100 Ringsted</t>
@@ -1051,26 +661,10 @@
     <t>Industriejendom, Produktion, Lager</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                6.500.000,-
-                  Pris pr. m² kr.
-                  9.246,-
-                Årlige driftsudgifter kr.
-                35.190,-
-                  Årlige driftsudgifter pr. m² kr.
-                  50,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              703 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              6311 m²
-            </t>
+    <t>Pris i kr. 6.500.000,- Pris pr. m² kr. 9.246,- Årlige driftsudgifter kr. 35.190,- Årlige driftsudgifter pr. m² kr. 50,-</t>
+  </si>
+  <si>
+    <t>Etage areal 703 m² Sekundært areal 0 m² Grund areal 6311 m²</t>
   </si>
   <si>
     <t>ANDRE TYPER TIL SALG - POPULÆR</t>
@@ -1091,24 +685,10 @@
     <t>Bolig erhverv</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                5.600.000,-
-                  Pris pr. m² kr.
-                  10.487,-
-                Årlige driftsudgifter kr.
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              534 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              1650 m²
-            </t>
+    <t>Pris i kr. 5.600.000,- Pris pr. m² kr. 10.487,- Årlige driftsudgifter kr. 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 534 m² Sekundært areal 0 m² Grund areal 1650 m²</t>
   </si>
   <si>
     <t>Bad, Omklædning, Kælderrum, Lagerrum, Parkering, Køkken</t>
@@ -1129,30 +709,10 @@
     <t>Industrivirksomhed, Lager, Produktion, Produktionsejendom</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Pris i kr.
-                1.998.000,-
-                  Årlige lejeindtægt kr.
-                  72.000,-
-                  Pris pr. m² kr.
-                  592,-
-                  Årlige lejeindtægt pr. m² kr.
-                  21,-
-                Årlige driftsudgifter kr.
-                28.669,-
-                  Årlige driftsudgifter pr. m² kr.
-                  8,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              3374 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              7427 m²
-            </t>
+    <t>Pris i kr. 1.998.000,- Årlige lejeindtægt kr. 72.000,- Pris pr. m² kr. 592,- Årlige lejeindtægt pr. m² kr. 21,- Årlige driftsudgifter kr. 28.669,- Årlige driftsudgifter pr. m² kr. 8,-</t>
+  </si>
+  <si>
+    <t>Etage areal 3374 m² Sekundært areal 0 m² Grund areal 7427 m²</t>
   </si>
   <si>
     <t>Hall, Parkering, Lager, Kontor</t>
@@ -1891,22 +1451,22 @@
         <v>91</v>
       </c>
       <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
         <v>92</v>
-      </c>
-      <c r="F10" t="s">
-        <v>93</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>
       </c>
       <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" t="s">
         <v>94</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>95</v>
-      </c>
-      <c r="J10" t="s">
-        <v>96</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
@@ -1920,37 +1480,37 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
         <v>97</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>98</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>99</v>
-      </c>
-      <c r="E11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
         <v>101</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>102</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>103</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>104</v>
-      </c>
-      <c r="L11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1958,37 +1518,37 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>107</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
         <v>108</v>
-      </c>
-      <c r="E12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" t="s">
-        <v>109</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" t="s">
         <v>110</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>111</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>112</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>113</v>
-      </c>
-      <c r="L12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1996,34 +1556,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>116</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
         <v>117</v>
-      </c>
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" t="s">
-        <v>118</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
         <v>119</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>120</v>
-      </c>
-      <c r="K13" t="s">
-        <v>121</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
@@ -2034,19 +1594,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
         <v>122</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>123</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>124</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>125</v>
-      </c>
-      <c r="F14" t="s">
-        <v>126</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -2055,51 +1615,51 @@
         <v>85</v>
       </c>
       <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
         <v>127</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>128</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>129</v>
-      </c>
-      <c r="L14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
         <v>131</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>132</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>133</v>
-      </c>
-      <c r="D15" t="s">
-        <v>134</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
         <v>135</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>136</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>137</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>138</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>139</v>
-      </c>
-      <c r="K15" t="s">
-        <v>140</v>
       </c>
       <c r="L15" t="s">
         <v>19</v>
@@ -2107,37 +1667,37 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s">
         <v>141</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>142</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>143</v>
-      </c>
-      <c r="D16" t="s">
-        <v>144</v>
       </c>
       <c r="E16" t="s">
         <v>37</v>
       </c>
       <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" t="s">
         <v>145</v>
       </c>
-      <c r="G16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>146</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>147</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>148</v>
-      </c>
-      <c r="K16" t="s">
-        <v>149</v>
       </c>
       <c r="L16" t="s">
         <v>19</v>
@@ -2148,34 +1708,34 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
         <v>150</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>151</v>
-      </c>
-      <c r="D17" t="s">
-        <v>152</v>
       </c>
       <c r="E17" t="s">
         <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
         <v>39</v>
       </c>
       <c r="H17" t="s">
+        <v>153</v>
+      </c>
+      <c r="I17" t="s">
         <v>154</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>155</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>156</v>
-      </c>
-      <c r="K17" t="s">
-        <v>157</v>
       </c>
       <c r="L17" t="s">
         <v>19</v>
@@ -2183,75 +1743,75 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>159</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>160</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
         <v>161</v>
-      </c>
-      <c r="E18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" t="s">
-        <v>162</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
       </c>
       <c r="H18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" t="s">
         <v>163</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>164</v>
-      </c>
-      <c r="J18" t="s">
-        <v>165</v>
       </c>
       <c r="K18" t="s">
         <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s">
         <v>167</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>168</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>169</v>
-      </c>
-      <c r="D19" t="s">
-        <v>170</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
         <v>39</v>
       </c>
       <c r="H19" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" t="s">
         <v>172</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>173</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>174</v>
-      </c>
-      <c r="K19" t="s">
-        <v>175</v>
       </c>
       <c r="L19" t="s">
         <v>19</v>
@@ -2262,19 +1822,19 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" t="s">
         <v>176</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>177</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
         <v>178</v>
-      </c>
-      <c r="E20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" t="s">
-        <v>179</v>
       </c>
       <c r="G20" t="s">
         <v>57</v>
@@ -2283,13 +1843,13 @@
         <v>19</v>
       </c>
       <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
         <v>180</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>181</v>
-      </c>
-      <c r="K20" t="s">
-        <v>182</v>
       </c>
       <c r="L20" t="s">
         <v>19</v>
@@ -2297,34 +1857,34 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
         <v>183</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>184</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>185</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
         <v>186</v>
       </c>
-      <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>187</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
         <v>188</v>
       </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>189</v>
-      </c>
-      <c r="J21" t="s">
-        <v>190</v>
       </c>
       <c r="K21" t="s">
         <v>19</v>
@@ -2338,19 +1898,19 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" t="s">
         <v>191</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>192</v>
-      </c>
-      <c r="D22" t="s">
-        <v>193</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
@@ -2359,13 +1919,13 @@
         <v>85</v>
       </c>
       <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
         <v>195</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>196</v>
-      </c>
-      <c r="K22" t="s">
-        <v>197</v>
       </c>
       <c r="L22" t="s">
         <v>19</v>
@@ -2376,34 +1936,34 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
         <v>198</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>199</v>
-      </c>
-      <c r="D23" t="s">
-        <v>200</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
         <v>57</v>
       </c>
       <c r="H23" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" t="s">
         <v>202</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>203</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>204</v>
-      </c>
-      <c r="K23" t="s">
-        <v>205</v>
       </c>
       <c r="L23" t="s">
         <v>19</v>
@@ -2411,34 +1971,34 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" t="s">
         <v>206</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>207</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
         <v>208</v>
       </c>
-      <c r="E24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
         <v>209</v>
       </c>
-      <c r="G24" t="s">
-        <v>188</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>210</v>
-      </c>
-      <c r="J24" t="s">
-        <v>211</v>
       </c>
       <c r="K24" t="s">
         <v>19</v>
@@ -2449,37 +2009,37 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" t="s">
         <v>212</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>213</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
         <v>214</v>
-      </c>
-      <c r="E25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" t="s">
-        <v>215</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
       </c>
       <c r="H25" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" t="s">
         <v>216</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>217</v>
       </c>
-      <c r="J25" t="s">
-        <v>218</v>
-      </c>
       <c r="K25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s">
         <v>19</v>
@@ -2487,37 +2047,37 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" t="s">
         <v>219</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>220</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>221</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
         <v>222</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" t="s">
-        <v>223</v>
       </c>
       <c r="G26" t="s">
         <v>57</v>
       </c>
       <c r="H26" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" t="s">
         <v>224</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>225</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>226</v>
-      </c>
-      <c r="K26" t="s">
-        <v>227</v>
       </c>
       <c r="L26" t="s">
         <v>19</v>
@@ -2528,34 +2088,34 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
         <v>228</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>229</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
         <v>230</v>
-      </c>
-      <c r="E27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" t="s">
-        <v>231</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
       </c>
       <c r="H27" t="s">
+        <v>231</v>
+      </c>
+      <c r="I27" t="s">
         <v>232</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>233</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>234</v>
-      </c>
-      <c r="K27" t="s">
-        <v>235</v>
       </c>
       <c r="L27" t="s">
         <v>19</v>

--- a/koeb.xlsx
+++ b/koeb.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="170">
   <si>
     <t>Type til leje</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Teknik</t>
   </si>
   <si>
-    <t>KONTOR TIL SALG</t>
+    <t>KONTOR TIL SALG - POPULÆR</t>
   </si>
   <si>
     <t>Nyhavn 57B</t>
@@ -115,6 +115,9 @@
     <t>Showroom, Butik</t>
   </si>
   <si>
+    <t>DETAILHANDEL/BUTIK TIL SALG - POPULÆR</t>
+  </si>
+  <si>
     <t>Henrik Ibsens Vej 2</t>
   </si>
   <si>
@@ -139,7 +142,7 @@
     <t>Idyllisk hjørnelokation på Frederiksberg</t>
   </si>
   <si>
-    <t>Frisør, Butik, Café</t>
+    <t>Café, Frisør, Butik</t>
   </si>
   <si>
     <t>Toilet, Gårdmiljø, Kælderrum, Opbevaringsrum, Køkken, Lager, Kontor</t>
@@ -181,7 +184,7 @@
     <t xml:space="preserve">Lager &amp; Produktion </t>
   </si>
   <si>
-    <t>Industriejendom, Maskinfabrik, Lager, Produktion</t>
+    <t>Produktion, Maskinfabrik, Industriejendom, Lager</t>
   </si>
   <si>
     <t>Bad, Omklædning, Indgangsparti, Kantine, Kælder, Parkeringsplads, Terrasse, Udearealer, Port, Lager, Kontor</t>
@@ -220,7 +223,7 @@
     <t xml:space="preserve">Andre typer </t>
   </si>
   <si>
-    <t>Hotel</t>
+    <t>Byggemulighed</t>
   </si>
   <si>
     <t>Anretterkøkken, Pejs, Depotrum, Fryserum, Toilet, Minigolf, Omklædningsrum, P-plads, Reception, Køkken</t>
@@ -253,7 +256,7 @@
     <t>Ikonisk ejendom i Grenaa med erhverv og bolig til.</t>
   </si>
   <si>
-    <t>Frisør</t>
+    <t>Produktion</t>
   </si>
   <si>
     <t>Badeværelse, Garage, Toilet, Gård, Kantine, Trægulve, Køkken, Lager, Kontor</t>
@@ -268,6 +271,9 @@
     <t>Projektejendom i Hejnsvig</t>
   </si>
   <si>
+    <t>Grund</t>
+  </si>
+  <si>
     <t>ANDRE TYPER TIL SALG - POPULÆR</t>
   </si>
   <si>
@@ -298,7 +304,7 @@
     <t>Funktionel ejendom med gode muligheder</t>
   </si>
   <si>
-    <t>Lager, Produktion</t>
+    <t>Produktion, Lager</t>
   </si>
   <si>
     <t>Bad, Toilet, Parkering, Køkken, Lager, Kontor</t>
@@ -343,7 +349,7 @@
     <t>Særdeles velholdt ejendom til håndværk og lettere produktion</t>
   </si>
   <si>
-    <t>Værksted, Lager, Produktion</t>
+    <t>Produktion, Værksted, Lager</t>
   </si>
   <si>
     <t>Kantine, Reception, Trægulve, Lager, Kontor</t>
@@ -367,7 +373,7 @@
     <t xml:space="preserve">Hotel &amp; Restaurant </t>
   </si>
   <si>
-    <t>Restaurant, Kro, take away</t>
+    <t>Restaurant, Kro, Take away</t>
   </si>
   <si>
     <t>Fryserum, P-plads, Toiletter, Køkken</t>
@@ -430,7 +436,7 @@
     <t>Blandet bolig- og erhvervsejendom</t>
   </si>
   <si>
-    <t>Bolig- og erhvervsejendom</t>
+    <t>Bolig og erhvervsejendom</t>
   </si>
   <si>
     <t>Opbevaringsrum, Parkeringsplads, Receptionsområde, Terrasse, Køkken, Kontor</t>
@@ -893,6 +899,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="62" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="50" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="14" width="28" customWidth="1"/>
+    <col min="15" max="15" width="34" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="124" customWidth="1"/>
+    <col min="20" max="20" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1082,25 +1110,25 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>1813</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -1136,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s">
         <v>24</v>
@@ -1144,31 +1172,31 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>2000</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>1695000</v>
@@ -1198,10 +1226,10 @@
         <v>429</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1209,28 +1237,28 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>8370</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>1029</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6">
         <v>4995000</v>
@@ -1260,7 +1288,7 @@
         <v>2231</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
         <v>24</v>
@@ -1268,19 +1296,19 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>2650</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>4256</v>
@@ -1289,10 +1317,10 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7">
         <v>45500000</v>
@@ -1322,10 +1350,10 @@
         <v>10000</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1333,16 +1361,16 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>3460</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>120</v>
@@ -1354,7 +1382,7 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J8">
         <v>1950000</v>
@@ -1387,24 +1415,24 @@
         <v>24</v>
       </c>
       <c r="T8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>6520</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>1819</v>
@@ -1413,10 +1441,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J9">
         <v>51500000</v>
@@ -1446,39 +1474,39 @@
         <v>635613</v>
       </c>
       <c r="S9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>9690</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <v>738</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J10">
         <v>1500000</v>
@@ -1508,7 +1536,7 @@
         <v>3146</v>
       </c>
       <c r="S10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s">
         <v>24</v>
@@ -1516,19 +1544,19 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>8500</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <v>1323</v>
@@ -1537,10 +1565,10 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11">
         <v>1650000</v>
@@ -1570,7 +1598,7 @@
         <v>1426</v>
       </c>
       <c r="S11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s">
         <v>24</v>
@@ -1578,31 +1606,31 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>7250</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12">
         <v>872</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="J12">
         <v>1995000</v>
@@ -1640,31 +1668,31 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>4700</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>171</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J13">
         <v>1750000</v>
@@ -1694,27 +1722,27 @@
         <v>521</v>
       </c>
       <c r="S13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="T13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>4672</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F14">
         <v>507</v>
@@ -1723,10 +1751,10 @@
         <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J14">
         <v>3495000</v>
@@ -1756,10 +1784,10 @@
         <v>2803</v>
       </c>
       <c r="S14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1767,7 +1795,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>1256</v>
@@ -1776,19 +1804,19 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F15">
         <v>261</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J15">
         <v>2850000</v>
@@ -1818,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T15" t="s">
         <v>24</v>
@@ -1826,19 +1854,19 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C16">
         <v>7400</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16">
         <v>723</v>
@@ -1847,10 +1875,10 @@
         <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J16">
         <v>2395000</v>
@@ -1880,7 +1908,7 @@
         <v>3803</v>
       </c>
       <c r="S16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T16" t="s">
         <v>24</v>
@@ -1888,19 +1916,19 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C17">
         <v>6760</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F17">
         <v>892</v>
@@ -1909,10 +1937,10 @@
         <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J17">
         <v>3750000</v>
@@ -1942,27 +1970,27 @@
         <v>3118</v>
       </c>
       <c r="S17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C18">
         <v>7140</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F18">
         <v>666</v>
@@ -1971,10 +1999,10 @@
         <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J18">
         <v>2500000</v>
@@ -2004,39 +2032,39 @@
         <v>1855</v>
       </c>
       <c r="S18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C19">
         <v>4200</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19">
         <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J19">
         <v>3500000</v>
@@ -2066,7 +2094,7 @@
         <v>850</v>
       </c>
       <c r="S19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="T19" t="s">
         <v>24</v>
@@ -2074,19 +2102,19 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C20">
         <v>9520</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F20">
         <v>695</v>
@@ -2095,10 +2123,10 @@
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J20">
         <v>2325000</v>
@@ -2128,10 +2156,10 @@
         <v>2500</v>
       </c>
       <c r="S20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="T20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2139,16 +2167,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C21">
         <v>6230</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F21">
         <v>460</v>
@@ -2190,7 +2218,7 @@
         <v>2898</v>
       </c>
       <c r="S21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T21" t="s">
         <v>24</v>
@@ -2198,31 +2226,31 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C22">
         <v>6100</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F22">
         <v>536</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J22">
         <v>1975000</v>
@@ -2252,7 +2280,7 @@
         <v>3224</v>
       </c>
       <c r="S22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="T22" t="s">
         <v>24</v>
@@ -2260,19 +2288,19 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C23">
         <v>8320</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F23">
         <v>2978</v>
@@ -2281,7 +2309,7 @@
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
@@ -2322,19 +2350,19 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C24">
         <v>8870</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F24">
         <v>3006</v>
@@ -2343,10 +2371,10 @@
         <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J24">
         <v>6250000</v>
@@ -2376,39 +2404,39 @@
         <v>10945</v>
       </c>
       <c r="S24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="T24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C25">
         <v>6400</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F25">
         <v>2256</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J25">
         <v>7500000</v>
@@ -2438,7 +2466,7 @@
         <v>1681</v>
       </c>
       <c r="S25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="T25" t="s">
         <v>24</v>
@@ -2446,31 +2474,31 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C26">
         <v>7620</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F26">
         <v>1655</v>
       </c>
       <c r="G26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J26">
         <v>2895000</v>
@@ -2500,27 +2528,27 @@
         <v>12000</v>
       </c>
       <c r="S26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C27">
         <v>2950</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F27">
         <v>370</v>
@@ -2529,10 +2557,10 @@
         <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J27">
         <v>6395000</v>
@@ -2562,7 +2590,7 @@
         <v>1431</v>
       </c>
       <c r="S27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="T27" t="s">
         <v>24</v>

--- a/koeb.xlsx
+++ b/koeb.xlsx
@@ -373,7 +373,7 @@
     <t xml:space="preserve">Hotel &amp; Restaurant </t>
   </si>
   <si>
-    <t>Restaurant, Kro, Take away</t>
+    <t>Restaurant, Kro, take away</t>
   </si>
   <si>
     <t>Fryserum, P-plads, Toiletter, Køkken</t>

--- a/koeb.xlsx
+++ b/koeb.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="161">
   <si>
     <t>Type til leje</t>
   </si>
@@ -73,6 +73,30 @@
     <t>Teknik</t>
   </si>
   <si>
+    <t>ANDRE TYPER TIL SALG</t>
+  </si>
+  <si>
+    <t>Jan Timanns Plads 1</t>
+  </si>
+  <si>
+    <t>Dragør</t>
+  </si>
+  <si>
+    <t>Historisk ejendom i hjertet af Dragør</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andre typer </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Toilet, Gårdmiljø, Køkken</t>
+  </si>
+  <si>
     <t>KONTOR TIL SALG</t>
   </si>
   <si>
@@ -85,21 +109,15 @@
     <t>Synlig ejendom til lager/ showroom</t>
   </si>
   <si>
-    <t>B Energimærke B</t>
+    <t>B</t>
   </si>
   <si>
     <t xml:space="preserve">Kontor </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Port, Lager, Kontor</t>
   </si>
   <si>
-    <t>ANDRE TYPER TIL SALG</t>
-  </si>
-  <si>
     <t>Industrivej 2</t>
   </si>
   <si>
@@ -109,10 +127,7 @@
     <t>Velholdt ejendom med bolig og erhverv</t>
   </si>
   <si>
-    <t>C Energimærke C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andre typer </t>
+    <t>C</t>
   </si>
   <si>
     <t>Badeværelse, Garage, Toilet, Storrumskontor, Terrasse, Port, Køkken, Kontor</t>
@@ -229,7 +244,7 @@
     <t>Håndværkertilbud helt centralt i Randers</t>
   </si>
   <si>
-    <t>E Energimærke E</t>
+    <t>E</t>
   </si>
   <si>
     <t>Café, Butikker, Butik</t>
@@ -247,7 +262,7 @@
     <t>Erhvervslokale med god synlighed mod Valdemarsgade</t>
   </si>
   <si>
-    <t>D Energimærke D</t>
+    <t>D</t>
   </si>
   <si>
     <t>Klinik, Kontor</t>
@@ -271,6 +286,39 @@
     <t>Hall, Kantine, Kontorlandskab, Mødelokale, Omklædningsrum, Toiletter, Port, Kontor</t>
   </si>
   <si>
+    <t>Bjergvej 6</t>
+  </si>
+  <si>
+    <t>Klippinge</t>
+  </si>
+  <si>
+    <t>Funktionel ejendom med gode muligheder</t>
+  </si>
+  <si>
+    <t>Produktion, Lager</t>
+  </si>
+  <si>
+    <t>Bad, Toilet, Parkering, Køkken, Lager, Kontor</t>
+  </si>
+  <si>
+    <t>KONTOR TIL SALG - POPULÆR</t>
+  </si>
+  <si>
+    <t>Amaliegade 28</t>
+  </si>
+  <si>
+    <t>København K</t>
+  </si>
+  <si>
+    <t>Sjældent udbudt erhvervsandel på 261 m2 i Amaliegade</t>
+  </si>
+  <si>
+    <t>Kontor</t>
+  </si>
+  <si>
+    <t>Cykelparkering, Depotrum, Mødelokale, Receptionsområde, Storrumskontor, Toiletfaciliteter, Køkken, Kontor</t>
+  </si>
+  <si>
     <t>Falkevej 13</t>
   </si>
   <si>
@@ -280,45 +328,12 @@
     <t>Kombineret bolig og erhverv i Hillerød</t>
   </si>
   <si>
-    <t>Kontor</t>
-  </si>
-  <si>
     <t>Altan, Depot, Bad, Toilet, Spiseplads, Kælder, Køkkenafsnit, Parkeringsforhold, Tegltag, Port, Køkken, Lager, Kontor</t>
   </si>
   <si>
     <t>Gulvvarme, Lift, Radiatorer, Teknikrum, Udsugningsanlæg</t>
   </si>
   <si>
-    <t>Bjergvej 6</t>
-  </si>
-  <si>
-    <t>Klippinge</t>
-  </si>
-  <si>
-    <t>Funktionel ejendom med gode muligheder</t>
-  </si>
-  <si>
-    <t>Produktion, Lager</t>
-  </si>
-  <si>
-    <t>Bad, Toilet, Parkering, Køkken, Lager, Kontor</t>
-  </si>
-  <si>
-    <t>KONTOR TIL SALG - POPULÆR</t>
-  </si>
-  <si>
-    <t>Amaliegade 28</t>
-  </si>
-  <si>
-    <t>København K</t>
-  </si>
-  <si>
-    <t>Sjældent udbudt erhvervsandel på 261 m2 i Amaliegade</t>
-  </si>
-  <si>
-    <t>Cykelparkering, Depotrum, Mødelokale, Receptionsområde, Storrumskontor, Toiletfaciliteter, Køkken, Kontor</t>
-  </si>
-  <si>
     <t>Faaborgvej 16</t>
   </si>
   <si>
@@ -388,7 +403,7 @@
     <t>Flot og indflytningsklar ejendom</t>
   </si>
   <si>
-    <t>A2010 Energimærke A2010 C</t>
+    <t>A2010</t>
   </si>
   <si>
     <t>Grund</t>
@@ -478,19 +493,7 @@
     <t>Nu er muligheden der for at overtage ”Kræmmerne i Kædeby”</t>
   </si>
   <si>
-    <t>F Energimærke F</t>
-  </si>
-  <si>
     <t>Butik, Showroom</t>
-  </si>
-  <si>
-    <t>Henrik Ibsens Vej 2</t>
-  </si>
-  <si>
-    <t>84 m² + 26 m² erhvervsejerlejligheder til salg • Frb.</t>
-  </si>
-  <si>
-    <t>Toilet, Kælder, Køkken</t>
   </si>
 </sst>
 </file>
@@ -868,6 +871,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
@@ -876,7 +885,7 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="62" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="39" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
@@ -962,7 +971,7 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>4160</v>
+        <v>2791</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -971,7 +980,7 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>2108</v>
+        <v>382</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -983,31 +992,31 @@
         <v>26</v>
       </c>
       <c r="J2">
-        <v>9995000</v>
+        <v>13499000</v>
       </c>
       <c r="K2">
-        <v>194174</v>
+        <v>35338</v>
       </c>
       <c r="L2">
-        <v>4741</v>
+        <v>195514</v>
       </c>
       <c r="M2">
-        <v>92</v>
-      </c>
-      <c r="N2">
-        <v>39441</v>
-      </c>
-      <c r="O2">
-        <v>19</v>
+        <v>512</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
       </c>
       <c r="P2">
-        <v>2108</v>
+        <v>382</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>11794</v>
+        <v>412</v>
       </c>
       <c r="S2" t="s">
         <v>27</v>
@@ -1024,7 +1033,7 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>5492</v>
+        <v>4160</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -1033,7 +1042,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>643</v>
+        <v>2108</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1045,296 +1054,296 @@
         <v>26</v>
       </c>
       <c r="J3">
-        <v>4000000</v>
+        <v>9995000</v>
       </c>
       <c r="K3">
-        <v>6221</v>
+        <v>194174</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
+        <v>4741</v>
+      </c>
+      <c r="M3">
+        <v>92</v>
+      </c>
+      <c r="N3">
+        <v>39441</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
       </c>
       <c r="P3">
-        <v>643</v>
+        <v>2108</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>4235</v>
+        <v>11794</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>5492</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="C4">
-        <v>3740</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4">
+        <v>643</v>
+      </c>
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>4000000</v>
+      </c>
+      <c r="K4">
+        <v>6221</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4">
+        <v>643</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>4235</v>
+      </c>
+      <c r="S4" t="s">
         <v>39</v>
       </c>
-      <c r="F4">
-        <v>134</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="T4" t="s">
         <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4">
-        <v>1275000</v>
-      </c>
-      <c r="K4">
-        <v>9515</v>
-      </c>
-      <c r="L4">
-        <v>18979</v>
-      </c>
-      <c r="M4">
-        <v>142</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4">
-        <v>134</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>3740</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5">
+        <v>134</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
         <v>45</v>
       </c>
-      <c r="C5">
-        <v>6000</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5">
+        <v>1275000</v>
+      </c>
+      <c r="K5">
+        <v>9515</v>
+      </c>
+      <c r="L5">
+        <v>18979</v>
+      </c>
+      <c r="M5">
+        <v>142</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5">
+        <v>134</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
         <v>47</v>
       </c>
-      <c r="F5">
-        <v>345</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="T5" t="s">
         <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5">
-        <v>3800000</v>
-      </c>
-      <c r="K5">
-        <v>11014</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5">
-        <v>345</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>3302</v>
-      </c>
-      <c r="S5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>6000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
         <v>52</v>
       </c>
-      <c r="C6">
-        <v>6200</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6">
+        <v>345</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>54</v>
       </c>
-      <c r="F6">
-        <v>2017</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
       <c r="J6">
-        <v>15975000</v>
+        <v>3800000</v>
       </c>
       <c r="K6">
-        <v>1538363</v>
+        <v>11014</v>
       </c>
       <c r="L6">
-        <v>7920</v>
-      </c>
-      <c r="M6">
-        <v>763</v>
-      </c>
-      <c r="N6">
-        <v>75123</v>
-      </c>
-      <c r="O6">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
       </c>
       <c r="P6">
-        <v>2017</v>
+        <v>345</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>7715</v>
+        <v>3302</v>
       </c>
       <c r="S6" t="s">
         <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>2100</v>
+        <v>6200</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7">
-        <v>31</v>
+        <v>2017</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
       </c>
       <c r="J7">
-        <v>850000</v>
+        <v>15975000</v>
       </c>
       <c r="K7">
-        <v>27419</v>
+        <v>1538363</v>
       </c>
       <c r="L7">
-        <v>42650</v>
+        <v>7920</v>
       </c>
       <c r="M7">
-        <v>1376</v>
-      </c>
-      <c r="N7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" t="s">
-        <v>26</v>
+        <v>763</v>
+      </c>
+      <c r="N7">
+        <v>75123</v>
+      </c>
+      <c r="O7">
+        <v>37</v>
       </c>
       <c r="P7">
-        <v>31</v>
+        <v>2017</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>7715</v>
       </c>
       <c r="S7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
       </c>
       <c r="C8">
-        <v>1911</v>
+        <v>2100</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
@@ -1343,84 +1352,84 @@
         <v>63</v>
       </c>
       <c r="F8">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>850000</v>
+      </c>
+      <c r="K8">
+        <v>27419</v>
+      </c>
+      <c r="L8">
+        <v>42650</v>
+      </c>
+      <c r="M8">
+        <v>1376</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8">
+        <v>31</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
         <v>64</v>
       </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8">
-        <v>925000</v>
-      </c>
-      <c r="K8">
-        <v>14453</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8">
-        <v>64</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>26</v>
-      </c>
       <c r="T8" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>6330</v>
+        <v>1911</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9">
-        <v>414</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="J9">
-        <v>1400000</v>
+        <v>925000</v>
       </c>
       <c r="K9">
-        <v>3382</v>
+        <v>14453</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1435,184 +1444,184 @@
         <v>26</v>
       </c>
       <c r="P9">
-        <v>414</v>
+        <v>64</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>761</v>
+        <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10">
-        <v>8900</v>
+        <v>6330</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10">
-        <v>202</v>
+        <v>414</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10">
+        <v>1400000</v>
+      </c>
+      <c r="K10">
+        <v>3382</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10">
+        <v>414</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>761</v>
+      </c>
+      <c r="S10" t="s">
         <v>73</v>
       </c>
-      <c r="J10">
-        <v>1495000</v>
-      </c>
-      <c r="K10">
-        <v>7401</v>
-      </c>
-      <c r="L10">
-        <v>11577</v>
-      </c>
-      <c r="M10">
-        <v>57</v>
-      </c>
-      <c r="N10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10">
-        <v>202</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>80</v>
-      </c>
-      <c r="S10" t="s">
-        <v>74</v>
-      </c>
       <c r="T10" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <v>8900</v>
+      </c>
+      <c r="D11" t="s">
         <v>75</v>
       </c>
-      <c r="C11">
-        <v>9000</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>76</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11">
+        <v>202</v>
+      </c>
+      <c r="G11" t="s">
         <v>77</v>
       </c>
-      <c r="F11">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
         <v>78</v>
       </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11">
+        <v>1495000</v>
+      </c>
+      <c r="K11">
+        <v>7401</v>
+      </c>
+      <c r="L11">
+        <v>11577</v>
+      </c>
+      <c r="M11">
+        <v>57</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11">
+        <v>202</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>80</v>
+      </c>
+      <c r="S11" t="s">
         <v>79</v>
       </c>
-      <c r="J11">
-        <v>650000</v>
-      </c>
-      <c r="K11">
-        <v>10156</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11">
-        <v>64</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
-        <v>80</v>
-      </c>
       <c r="T11" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>9000</v>
+      </c>
+      <c r="D12" t="s">
         <v>81</v>
       </c>
-      <c r="C12">
-        <v>7080</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>82</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
         <v>83</v>
       </c>
-      <c r="F12">
-        <v>1600</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
         <v>84</v>
       </c>
       <c r="J12">
-        <v>7000000</v>
+        <v>650000</v>
       </c>
       <c r="K12">
-        <v>4375</v>
+        <v>10156</v>
       </c>
       <c r="L12">
-        <v>82479</v>
-      </c>
-      <c r="M12">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
       </c>
       <c r="N12" t="s">
         <v>26</v>
@@ -1621,30 +1630,30 @@
         <v>26</v>
       </c>
       <c r="P12">
-        <v>1600</v>
+        <v>64</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="S12" t="s">
         <v>85</v>
       </c>
       <c r="T12" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
       </c>
       <c r="C13">
-        <v>3400</v>
+        <v>7080</v>
       </c>
       <c r="D13" t="s">
         <v>87</v>
@@ -1653,28 +1662,28 @@
         <v>88</v>
       </c>
       <c r="F13">
-        <v>626</v>
+        <v>1600</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
         <v>89</v>
       </c>
       <c r="J13">
-        <v>7250000</v>
+        <v>7000000</v>
       </c>
       <c r="K13">
-        <v>11581</v>
+        <v>4375</v>
       </c>
       <c r="L13">
-        <v>64716</v>
+        <v>82479</v>
       </c>
       <c r="M13">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="N13" t="s">
         <v>26</v>
@@ -1683,36 +1692,36 @@
         <v>26</v>
       </c>
       <c r="P13">
-        <v>626</v>
+        <v>1600</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1200</v>
+        <v>3780</v>
       </c>
       <c r="S13" t="s">
         <v>90</v>
       </c>
       <c r="T13" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>4672</v>
       </c>
       <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
         <v>93</v>
-      </c>
-      <c r="E14" t="s">
-        <v>94</v>
       </c>
       <c r="F14">
         <v>507</v>
@@ -1721,10 +1730,10 @@
         <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14">
         <v>3495000</v>
@@ -1754,39 +1763,39 @@
         <v>2803</v>
       </c>
       <c r="S14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
         <v>97</v>
-      </c>
-      <c r="B15" t="s">
-        <v>98</v>
       </c>
       <c r="C15">
         <v>1256</v>
       </c>
       <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
         <v>99</v>
-      </c>
-      <c r="E15" t="s">
-        <v>100</v>
       </c>
       <c r="F15">
         <v>261</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="J15">
         <v>2850000</v>
@@ -1824,13 +1833,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>102</v>
       </c>
       <c r="C16">
-        <v>5250</v>
+        <v>3400</v>
       </c>
       <c r="D16" t="s">
         <v>103</v>
@@ -1839,28 +1848,28 @@
         <v>104</v>
       </c>
       <c r="F16">
-        <v>83</v>
+        <v>626</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="J16">
-        <v>1100000</v>
+        <v>7250000</v>
       </c>
       <c r="K16">
-        <v>13253</v>
+        <v>11581</v>
       </c>
       <c r="L16">
-        <v>14945</v>
+        <v>64716</v>
       </c>
       <c r="M16">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="N16" t="s">
         <v>26</v>
@@ -1869,75 +1878,75 @@
         <v>26</v>
       </c>
       <c r="P16">
-        <v>83</v>
+        <v>626</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="S16" t="s">
         <v>105</v>
       </c>
       <c r="T16" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17">
-        <v>9850</v>
+        <v>5250</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17">
-        <v>383</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="J17">
-        <v>2595000</v>
+        <v>1100000</v>
       </c>
       <c r="K17">
-        <v>6775</v>
+        <v>13253</v>
       </c>
       <c r="L17">
-        <v>31682</v>
+        <v>14945</v>
       </c>
       <c r="M17">
+        <v>180</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17">
         <v>83</v>
       </c>
-      <c r="N17" t="s">
-        <v>26</v>
-      </c>
-      <c r="O17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17">
-        <v>383</v>
-      </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>2385</v>
+        <v>0</v>
       </c>
       <c r="S17" t="s">
         <v>110</v>
@@ -1948,43 +1957,43 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>111</v>
       </c>
       <c r="C18">
-        <v>9000</v>
+        <v>9850</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J18">
-        <v>4995000</v>
+        <v>2595000</v>
       </c>
       <c r="K18">
-        <v>10835</v>
+        <v>6775</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>26</v>
+        <v>31682</v>
+      </c>
+      <c r="M18">
+        <v>83</v>
       </c>
       <c r="N18" t="s">
         <v>26</v>
@@ -1993,60 +2002,60 @@
         <v>26</v>
       </c>
       <c r="P18">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>796</v>
+        <v>2385</v>
       </c>
       <c r="S18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T18" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
       </c>
       <c r="C19">
-        <v>2100</v>
+        <v>9000</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
         <v>117</v>
       </c>
       <c r="F19">
-        <v>184</v>
+        <v>461</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
         <v>118</v>
       </c>
       <c r="J19">
-        <v>2800000</v>
+        <v>4995000</v>
       </c>
       <c r="K19">
-        <v>15217</v>
+        <v>10835</v>
       </c>
       <c r="L19">
-        <v>81840</v>
-      </c>
-      <c r="M19">
-        <v>445</v>
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
       </c>
       <c r="N19" t="s">
         <v>26</v>
@@ -2055,13 +2064,13 @@
         <v>26</v>
       </c>
       <c r="P19">
-        <v>184</v>
+        <v>461</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>1407</v>
+        <v>796</v>
       </c>
       <c r="S19" t="s">
         <v>119</v>
@@ -2072,167 +2081,167 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
         <v>121</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20">
+        <v>2100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
         <v>122</v>
       </c>
-      <c r="C20">
-        <v>7323</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F20">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
         <v>123</v>
       </c>
-      <c r="E20" t="s">
+      <c r="J20">
+        <v>2800000</v>
+      </c>
+      <c r="K20">
+        <v>15217</v>
+      </c>
+      <c r="L20">
+        <v>81840</v>
+      </c>
+      <c r="M20">
+        <v>445</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20">
+        <v>184</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1407</v>
+      </c>
+      <c r="S20" t="s">
         <v>124</v>
       </c>
-      <c r="F20">
-        <v>1118</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="T20" t="s">
         <v>125</v>
-      </c>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" t="s">
-        <v>126</v>
-      </c>
-      <c r="J20">
-        <v>4495000</v>
-      </c>
-      <c r="K20">
-        <v>4021</v>
-      </c>
-      <c r="L20">
-        <v>32965</v>
-      </c>
-      <c r="M20">
-        <v>29</v>
-      </c>
-      <c r="N20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20">
-        <v>1118</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>19748</v>
-      </c>
-      <c r="S20" t="s">
-        <v>127</v>
-      </c>
-      <c r="T20" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21">
+        <v>7323</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
         <v>129</v>
       </c>
-      <c r="B21" t="s">
+      <c r="F21">
+        <v>1118</v>
+      </c>
+      <c r="G21" t="s">
         <v>130</v>
       </c>
-      <c r="C21">
-        <v>4440</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
         <v>131</v>
       </c>
-      <c r="E21" t="s">
+      <c r="J21">
+        <v>4495000</v>
+      </c>
+      <c r="K21">
+        <v>4021</v>
+      </c>
+      <c r="L21">
+        <v>32965</v>
+      </c>
+      <c r="M21">
+        <v>29</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21">
+        <v>1118</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>19748</v>
+      </c>
+      <c r="S21" t="s">
         <v>132</v>
       </c>
-      <c r="F21">
-        <v>631</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="T21" t="s">
         <v>133</v>
-      </c>
-      <c r="J21">
-        <v>8250000</v>
-      </c>
-      <c r="K21">
-        <v>13074</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21">
-        <v>631</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>77485</v>
-      </c>
-      <c r="S21" t="s">
-        <v>134</v>
-      </c>
-      <c r="T21" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22">
+        <v>4440</v>
+      </c>
+      <c r="D22" t="s">
         <v>136</v>
-      </c>
-      <c r="C22">
-        <v>1801</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
       </c>
       <c r="E22" t="s">
         <v>137</v>
       </c>
       <c r="F22">
-        <v>19</v>
+        <v>631</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
         <v>138</v>
       </c>
       <c r="J22">
-        <v>600000</v>
+        <v>8250000</v>
       </c>
       <c r="K22">
-        <v>31579</v>
+        <v>13074</v>
       </c>
       <c r="L22">
-        <v>3247</v>
-      </c>
-      <c r="M22">
-        <v>171</v>
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
       </c>
       <c r="N22" t="s">
         <v>26</v>
@@ -2241,19 +2250,19 @@
         <v>26</v>
       </c>
       <c r="P22">
-        <v>19</v>
+        <v>631</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>2977</v>
+        <v>77485</v>
       </c>
       <c r="S22" t="s">
         <v>139</v>
       </c>
       <c r="T22" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2261,40 +2270,40 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23">
-        <v>4700</v>
+        <v>1801</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
         <v>142</v>
       </c>
       <c r="F23">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="J23">
-        <v>625000</v>
+        <v>600000</v>
       </c>
       <c r="K23">
-        <v>7812</v>
+        <v>31579</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>26</v>
+        <v>3247</v>
+      </c>
+      <c r="M23">
+        <v>171</v>
       </c>
       <c r="N23" t="s">
         <v>26</v>
@@ -2303,16 +2312,16 @@
         <v>26</v>
       </c>
       <c r="P23">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>2977</v>
       </c>
       <c r="S23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T23" t="s">
         <v>26</v>
@@ -2320,37 +2329,37 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C24">
         <v>4700</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F24">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="J24">
-        <v>2295000</v>
+        <v>625000</v>
       </c>
       <c r="K24">
-        <v>6672</v>
+        <v>7812</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2365,16 +2374,16 @@
         <v>26</v>
       </c>
       <c r="P24">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T24" t="s">
         <v>26</v>
@@ -2382,43 +2391,43 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25">
-        <v>1051</v>
+        <v>4700</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25">
-        <v>504</v>
+        <v>344</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="J25">
-        <v>17500000</v>
+        <v>2295000</v>
       </c>
       <c r="K25">
-        <v>34722</v>
+        <v>6672</v>
       </c>
       <c r="L25">
-        <v>100</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
       </c>
       <c r="N25" t="s">
         <v>26</v>
@@ -2427,16 +2436,16 @@
         <v>26</v>
       </c>
       <c r="P25">
-        <v>504</v>
+        <v>344</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="S25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="T25" t="s">
         <v>26</v>
@@ -2444,61 +2453,61 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C26">
-        <v>5932</v>
+        <v>1051</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
         <v>154</v>
       </c>
       <c r="F26">
-        <v>755</v>
+        <v>504</v>
       </c>
       <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26">
+        <v>17500000</v>
+      </c>
+      <c r="K26">
+        <v>34722</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26">
+        <v>504</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
         <v>155</v>
-      </c>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26">
-        <v>2000000</v>
-      </c>
-      <c r="K26">
-        <v>2649</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" t="s">
-        <v>26</v>
-      </c>
-      <c r="O26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P26">
-        <v>755</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>3473</v>
-      </c>
-      <c r="S26" t="s">
-        <v>26</v>
       </c>
       <c r="T26" t="s">
         <v>26</v>
@@ -2506,37 +2515,37 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
         <v>157</v>
       </c>
       <c r="C27">
-        <v>1813</v>
+        <v>5932</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F27">
-        <v>110</v>
+        <v>755</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="J27">
-        <v>1100000</v>
+        <v>2000000</v>
       </c>
       <c r="K27">
-        <v>10000</v>
+        <v>2649</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2551,16 +2560,16 @@
         <v>26</v>
       </c>
       <c r="P27">
-        <v>110</v>
+        <v>755</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>3473</v>
       </c>
       <c r="S27" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="T27" t="s">
         <v>26</v>
